--- a/LMSProject-UIAchievers/src/test/resources/exceldata/UI_lms.xlsx
+++ b/LMSProject-UIAchievers/src/test/resources/exceldata/UI_lms.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="LMS-Project" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="fjLVwZwyRp1Sv5Bg55jvBgnRiQ0YCwO2jRkg2zp00/8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="n8I+8rQpFVpWQWIneTi+l5Le/k6xCIAROwJNGbEdjUo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Program Name</t>
   </si>
@@ -57,6 +57,42 @@
     <t>Batch Status</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Assignmentname</t>
+  </si>
+  <si>
+    <t>gradeby</t>
+  </si>
+  <si>
+    <t>Assignmentduedate</t>
+  </si>
+  <si>
+    <t>Assignment Description</t>
+  </si>
+  <si>
+    <t>AssignmentFile1</t>
+  </si>
+  <si>
+    <t>AssignmentFile2</t>
+  </si>
+  <si>
+    <t>AssignmentFile3</t>
+  </si>
+  <si>
+    <t>AssignmentFile4</t>
+  </si>
+  <si>
+    <t>AssignmentFile5</t>
+  </si>
+  <si>
+    <t>classname</t>
+  </si>
+  <si>
+    <t>studentname</t>
+  </si>
+  <si>
     <t>SDET</t>
   </si>
   <si>
@@ -79,6 +115,39 @@
   </si>
   <si>
     <t>onedrive/NumpyNinja/SDET150/Videos</t>
+  </si>
+  <si>
+    <t>Jun23-Status200-SDET-API Hackathon-001</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>14-09-2023</t>
+  </si>
+  <si>
+    <t>Assignment description for Jun23-Status200-SDET-API Hackathon-001</t>
+  </si>
+  <si>
+    <t>path1.json</t>
+  </si>
+  <si>
+    <t>path2.json</t>
+  </si>
+  <si>
+    <t>path3.json</t>
+  </si>
+  <si>
+    <t>path5.json</t>
+  </si>
+  <si>
+    <t>path6.json</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -88,12 +157,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.0"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -104,6 +178,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Courier New&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -143,6 +232,18 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -363,18 +464,23 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.14"/>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="17.0"/>
-    <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="17.29"/>
-    <col customWidth="1" min="6" max="6" width="14.57"/>
-    <col customWidth="1" min="7" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="10.86"/>
-    <col customWidth="1" min="11" max="11" width="13.57"/>
-    <col customWidth="1" min="12" max="12" width="30.14"/>
-    <col customWidth="1" min="13" max="13" width="21.29"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.86"/>
+    <col customWidth="1" min="2" max="2" width="13.86"/>
+    <col customWidth="1" min="3" max="3" width="12.14"/>
+    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="5" max="5" width="10.86"/>
+    <col customWidth="1" min="6" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="11.86"/>
+    <col customWidth="1" min="13" max="13" width="12.57"/>
+    <col customWidth="1" min="14" max="14" width="11.43"/>
+    <col customWidth="1" min="15" max="15" width="21.29"/>
+    <col customWidth="1" min="16" max="18" width="8.71"/>
+    <col customWidth="1" min="19" max="19" width="20.0"/>
+    <col customWidth="1" min="20" max="20" width="18.0"/>
+    <col customWidth="1" min="21" max="21" width="19.86"/>
+    <col customWidth="1" min="22" max="22" width="18.71"/>
+    <col customWidth="1" min="23" max="23" width="18.43"/>
+    <col customWidth="1" min="24" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,46 +523,115 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>150.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>7.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>45170.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1">
         <v>900.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/LMSProject-UIAchievers/src/test/resources/exceldata/UI_lms.xlsx
+++ b/LMSProject-UIAchievers/src/test/resources/exceldata/UI_lms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Program Name</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>onedrive/NumpyNinja/SDET150/Videos</t>
+  </si>
+  <si>
+    <t>Selenium Class</t>
   </si>
   <si>
     <t>Jun23-Status200-SDET-API Hackathon-001</t>
@@ -600,38 +603,41 @@
       <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="O2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
